--- a/out/artifacts/Tarea1POO_jar/Excel/baseDatosSismos.xlsx
+++ b/out/artifacts/Tarea1POO_jar/Excel/baseDatosSismos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D3406-65D4-B744-9803-6D6C15DDB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711A71E4-A70A-614B-9C21-4860A3FC2569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="207">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -252,9 +252,6 @@
     <t>07:03:00</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
     <t>31/10/2001</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>Deformación Interna</t>
   </si>
   <si>
-    <t>1231</t>
-  </si>
-  <si>
     <t>25/10/2000</t>
   </si>
   <si>
@@ -276,45 +270,30 @@
     <t>Choque de placas</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>01/09/2003</t>
   </si>
   <si>
     <t>12:02:12</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>02/02/2002</t>
   </si>
   <si>
     <t>02:02:02</t>
   </si>
   <si>
-    <t>515.51</t>
-  </si>
-  <si>
     <t>23/02/1995</t>
   </si>
   <si>
     <t>10:10:10</t>
   </si>
   <si>
-    <t>-154654135156.3</t>
-  </si>
-  <si>
     <t>04/02/5559</t>
   </si>
   <si>
     <t>03:11:12</t>
   </si>
   <si>
-    <t>por alla jajaj xd</t>
-  </si>
-  <si>
     <t>01/01/2000</t>
   </si>
   <si>
@@ -327,21 +306,12 @@
     <t>26/09/2021</t>
   </si>
   <si>
-    <t>por aca</t>
-  </si>
-  <si>
     <t>01/05/2012</t>
   </si>
   <si>
     <t>01:12:31</t>
   </si>
   <si>
-    <t>-156.51</t>
-  </si>
-  <si>
-    <t>aca</t>
-  </si>
-  <si>
     <t>02/01/1995</t>
   </si>
   <si>
@@ -360,54 +330,30 @@
     <t>18:14:00</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
     <t>20:08:00</t>
   </si>
   <si>
-    <t>asdasdasda</t>
-  </si>
-  <si>
-    <t>si pa</t>
-  </si>
-  <si>
     <t>28/09/2021</t>
   </si>
   <si>
     <t>15:05:00</t>
   </si>
   <si>
-    <t>cambio de main</t>
-  </si>
-  <si>
-    <t>funciona el control</t>
-  </si>
-  <si>
     <t>15:35:00</t>
   </si>
   <si>
-    <t>funciona agregar</t>
-  </si>
-  <si>
     <t>Cambia el primero</t>
   </si>
   <si>
     <t>15:55:00</t>
   </si>
   <si>
-    <t>Inserta al final</t>
-  </si>
-  <si>
     <t>03/03/2000</t>
   </si>
   <si>
     <t>10:30:20</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>03/01/2000</t>
   </si>
   <si>
@@ -423,97 +369,283 @@
     <t>03:20:21</t>
   </si>
   <si>
-    <t>Al frente de mi casa</t>
-  </si>
-  <si>
     <t>06:20:21</t>
   </si>
   <si>
-    <t>Al frente de mi casa x2</t>
-  </si>
-  <si>
     <t>04/05/1990</t>
   </si>
   <si>
     <t>23:10:10</t>
   </si>
   <si>
-    <t>En el centro de la tierra</t>
-  </si>
-  <si>
     <t>04/09/1998</t>
   </si>
   <si>
     <t>00:10:05</t>
   </si>
   <si>
-    <t>Al lado del pasado</t>
-  </si>
-  <si>
     <t>21:20:00</t>
   </si>
   <si>
-    <t>En mi cuarto</t>
-  </si>
-  <si>
     <t>21:24:00</t>
   </si>
   <si>
-    <t>Debajo de mi cama</t>
-  </si>
-  <si>
     <t>29/02/2020</t>
   </si>
   <si>
     <t>11:11:11</t>
   </si>
   <si>
-    <t>prueba valdiar fecha</t>
-  </si>
-  <si>
-    <t>JAJAJ</t>
-  </si>
-  <si>
     <t>12/01/2012</t>
   </si>
   <si>
     <t>00:00:22</t>
   </si>
   <si>
-    <t>Feo</t>
-  </si>
-  <si>
     <t>23/09/2021</t>
   </si>
   <si>
     <t>22:01:00</t>
   </si>
   <si>
-    <t>jajaj xdddd</t>
-  </si>
-  <si>
     <t>12/12/2020</t>
   </si>
   <si>
     <t>09:55:12</t>
   </si>
   <si>
-    <t>por mi choza</t>
-  </si>
-  <si>
     <t>01/10/2021</t>
   </si>
   <si>
     <t>22:02:00</t>
   </si>
   <si>
-    <t>En la cocina de mi casa</t>
-  </si>
-  <si>
     <t>23:25:30</t>
   </si>
   <si>
-    <t>En el walmart</t>
+    <t>10/10/1934</t>
+  </si>
+  <si>
+    <t>01:55:55</t>
+  </si>
+  <si>
+    <t>06/10/2021</t>
+  </si>
+  <si>
+    <t>19:22:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calle Fallas</t>
+  </si>
+  <si>
+    <t>San Isidro del General</t>
+  </si>
+  <si>
+    <t>Tres Rios</t>
+  </si>
+  <si>
+    <t>Upala</t>
+  </si>
+  <si>
+    <t>San Carlos</t>
+  </si>
+  <si>
+    <t>La Palma</t>
+  </si>
+  <si>
+    <t>Calle Fallas</t>
+  </si>
+  <si>
+    <t>Aserri</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Escazu</t>
+  </si>
+  <si>
+    <t>Cartago</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>Siquirres</t>
+  </si>
+  <si>
+    <t>Nicoya</t>
+  </si>
+  <si>
+    <t>Coyote</t>
+  </si>
+  <si>
+    <t>Isla del Coco</t>
+  </si>
+  <si>
+    <t>Isla Chira</t>
+  </si>
+  <si>
+    <t>13 km Norte de Multiplaza Curridabat</t>
+  </si>
+  <si>
+    <t>City Mall</t>
+  </si>
+  <si>
+    <t>Paseo Metropoli</t>
+  </si>
+  <si>
+    <t>Paseo de las Flores</t>
+  </si>
+  <si>
+    <t>MI casa</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Guapiles</t>
+  </si>
+  <si>
+    <t>UCR</t>
+  </si>
+  <si>
+    <t>Heredia</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>3 km sur de Parque Placentero</t>
+  </si>
+  <si>
+    <t>Pisos Picados</t>
+  </si>
+  <si>
+    <t>Dusty Depot</t>
+  </si>
+  <si>
+    <t>Salty Springs</t>
+  </si>
+  <si>
+    <t>Flush Factory</t>
+  </si>
+  <si>
+    <t>Consulado</t>
+  </si>
+  <si>
+    <t>Favela</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Club House</t>
+  </si>
+  <si>
+    <t>Litoral</t>
+  </si>
+  <si>
+    <t>Kafe Dostoyevsky</t>
+  </si>
+  <si>
+    <t>1 km oeste del Colegio El Rosario</t>
+  </si>
+  <si>
+    <t>Moravia</t>
+  </si>
+  <si>
+    <t>CAMBIO A ALAJUELA CENTRO</t>
+  </si>
+  <si>
+    <t>A la par de Puerto Viejo</t>
+  </si>
+  <si>
+    <t>2 km sur de Alajuelita</t>
+  </si>
+  <si>
+    <t>Camp Nou</t>
+  </si>
+  <si>
+    <t>3 km Norte de Puerto Caldera</t>
+  </si>
+  <si>
+    <t>Playa del Coco</t>
+  </si>
+  <si>
+    <t>Tamarindo</t>
+  </si>
+  <si>
+    <t>Montezuma</t>
+  </si>
+  <si>
+    <t>Playa Bejuco</t>
+  </si>
+  <si>
+    <t>Volcan Irazu</t>
+  </si>
+  <si>
+    <t>Al frente de Dos Cercas</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>En el centro de Turrialba</t>
+  </si>
+  <si>
+    <t>A la par de la Dos Pinos</t>
+  </si>
+  <si>
+    <t>Barrio Escalante</t>
+  </si>
+  <si>
+    <t>Liberia Centro</t>
+  </si>
+  <si>
+    <t>Yucatan</t>
+  </si>
+  <si>
+    <t>a la par de la UNA</t>
+  </si>
+  <si>
+    <t>San Antonio de Desamparados</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Banco de Costa Rica</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>En el walmart de San Sebastian</t>
+  </si>
+  <si>
+    <t>2 km sur de la Basilica</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>09:12:22</t>
+  </si>
+  <si>
+    <t>Casona de Santa Rosa</t>
+  </si>
+  <si>
+    <t>Cartago Centro</t>
+  </si>
+  <si>
+    <t>09/10/2021</t>
+  </si>
+  <si>
+    <t>08:50:30</t>
+  </si>
+  <si>
+    <t>Terramall</t>
   </si>
 </sst>
 </file>
@@ -911,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -927,7 +1059,7 @@
     <col min="6" max="6" customWidth="true" style="4" width="20.0" collapsed="true"/>
     <col min="7" max="8" bestFit="true" customWidth="true" style="17" width="12.5" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="10.1640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="14" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="50.5" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="6" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -993,11 +1125,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
@@ -1061,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -1093,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -1125,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -1221,7 +1353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -1349,7 +1481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1381,7 +1513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -1442,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
@@ -1509,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
@@ -1541,7 +1673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1614,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="C22">
-        <v>12313</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1231</v>
@@ -1635,25 +1767,25 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
       <c r="C23">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1668,16 +1800,16 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>123</v>
@@ -1686,7 +1818,7 @@
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1701,25 +1833,25 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="K24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25">
-        <v>1231</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1734,25 +1866,25 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26">
-        <v>3123.3131199999998</v>
+        <v>31.31</v>
       </c>
       <c r="D26">
-        <v>-23.31</v>
+        <v>23.31</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1767,31 +1899,31 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="K26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>-150</v>
       </c>
       <c r="D27">
-        <v>-15651.8516</v>
+        <v>141.85</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <v>7</v>
       </c>
       <c r="G27">
-        <v>-666666.11109999998</v>
+        <v>-666.11</v>
       </c>
       <c r="H27">
         <v>-651.20000000000005</v>
@@ -1800,16 +1932,16 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="K27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1833,16 +1965,16 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1866,16 +1998,16 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="K29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>62</v>
@@ -1890,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>-1565.65146</v>
+        <v>-15.66</v>
       </c>
       <c r="H30">
         <v>64156.651250000003</v>
@@ -1899,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>62</v>
@@ -1923,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>-1565.65146</v>
+        <v>-65.146000000000001</v>
       </c>
       <c r="H31">
         <v>64156.651250000003</v>
@@ -1932,16 +2064,16 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1950,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -1965,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="K32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>23</v>
@@ -1998,16 +2130,16 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="K33"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2016,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2031,16 +2163,16 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="K34"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2049,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2064,16 +2196,16 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -2082,7 +2214,7 @@
         <v>6.1</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2097,15 +2229,15 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -2129,15 +2261,15 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -2146,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -2161,15 +2293,15 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2193,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2865,15 +2997,15 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
         <v>76</v>
-      </c>
-      <c r="B61" t="s">
-        <v>77</v>
       </c>
       <c r="C61">
         <v>131</v>
@@ -2882,7 +3014,7 @@
         <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -2897,15 +3029,15 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62">
         <v>123</v>
@@ -2914,7 +3046,7 @@
         <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2929,15 +3061,15 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>1231</v>
@@ -2946,7 +3078,7 @@
         <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -2961,24 +3093,24 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C64">
-        <v>3123.3131199999998</v>
+        <v>12.54</v>
       </c>
       <c r="D64">
-        <v>-23.31</v>
+        <v>23.31</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -2993,30 +3125,30 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C65">
-        <v>-150</v>
+        <v>7.3</v>
       </c>
       <c r="D65">
-        <v>-15651.8516</v>
+        <v>11.85</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65">
-        <v>-666666.11109999998</v>
+        <v>-666.11</v>
       </c>
       <c r="H65">
         <v>-651.20000000000005</v>
@@ -3025,15 +3157,15 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3057,15 +3189,15 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -3089,15 +3221,15 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>62</v>
@@ -3112,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>-1565.65146</v>
+        <v>-165.65</v>
       </c>
       <c r="H68">
         <v>64156.651250000003</v>
@@ -3121,15 +3253,15 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -3138,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -3153,15 +3285,15 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>23</v>
@@ -3176,7 +3308,7 @@
         <v>6</v>
       </c>
       <c r="G70">
-        <v>-54156.2</v>
+        <v>-5416.2</v>
       </c>
       <c r="H70">
         <v>15351.2</v>
@@ -3185,15 +3317,15 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3202,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -3217,15 +3349,15 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3234,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F72">
         <v>7</v>
@@ -3249,15 +3381,15 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -3266,7 +3398,7 @@
         <v>6.1</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F73">
         <v>5</v>
@@ -3281,15 +3413,15 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -3304,24 +3436,24 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>-18561.111000000001</v>
+        <v>-1861.11</v>
       </c>
       <c r="H74">
-        <v>111.312313</v>
+        <v>111.31229999999999</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -3330,13 +3462,13 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <v>-516.15465400000005</v>
+        <v>-516.15440000000001</v>
       </c>
       <c r="H75">
         <v>-12864.54</v>
@@ -3345,15 +3477,15 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3377,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3819,7 +3951,7 @@
         <v>9.4978999999999996</v>
       </c>
       <c r="H90">
-        <v>-83.659099999999995</v>
+        <v>-83.61</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -4028,7 +4160,7 @@
         <v>74</v>
       </c>
       <c r="C97">
-        <v>12313</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>1231</v>
@@ -4049,15 +4181,15 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" t="s">
         <v>76</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
       </c>
       <c r="C98">
         <v>131</v>
@@ -4066,7 +4198,7 @@
         <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F98">
         <v>7</v>
@@ -4081,15 +4213,15 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C99">
         <v>123</v>
@@ -4098,7 +4230,7 @@
         <v>123</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -4113,15 +4245,15 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C100">
         <v>1231</v>
@@ -4130,7 +4262,7 @@
         <v>131</v>
       </c>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -4145,24 +4277,24 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C101">
-        <v>3123.3131199999998</v>
+        <v>10.4</v>
       </c>
       <c r="D101">
-        <v>-23.31</v>
+        <v>23.31</v>
       </c>
       <c r="E101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -4177,30 +4309,30 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C102">
-        <v>-150</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>-15651.8516</v>
+        <v>51.8</v>
       </c>
       <c r="E102" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F102">
         <v>7</v>
       </c>
       <c r="G102">
-        <v>-666666.11109999998</v>
+        <v>-66.111000000000004</v>
       </c>
       <c r="H102">
         <v>-651.20000000000005</v>
@@ -4209,15 +4341,15 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4241,15 +4373,15 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -4273,15 +4405,15 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C105">
         <v>62</v>
@@ -4305,15 +4437,15 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C106">
         <v>12</v>
@@ -4322,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F106">
         <v>7</v>
@@ -4337,15 +4469,15 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C107">
         <v>23</v>
@@ -4369,15 +4501,15 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4386,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F108">
         <v>5</v>
@@ -4401,15 +4533,15 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4418,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F109">
         <v>7</v>
@@ -4433,15 +4565,15 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C110">
         <v>6</v>
@@ -4450,7 +4582,7 @@
         <v>6.1</v>
       </c>
       <c r="E110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -4465,15 +4597,15 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -4491,21 +4623,21 @@
         <v>-18561.111000000001</v>
       </c>
       <c r="H111">
-        <v>111.312313</v>
+        <v>111.313</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -4514,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -4523,21 +4655,21 @@
         <v>-516.15465400000005</v>
       </c>
       <c r="H112">
-        <v>-12864.54</v>
+        <v>-164.54</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4561,15 +4693,15 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C114">
         <v>100</v>
@@ -4593,15 +4725,15 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C115">
         <v>14</v>
@@ -4625,15 +4757,15 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -4657,15 +4789,15 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -4689,15 +4821,15 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -4721,15 +4853,15 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -4753,15 +4885,15 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C120">
         <v>10</v>
@@ -4785,15 +4917,15 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -4802,7 +4934,7 @@
         <v>700</v>
       </c>
       <c r="E121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -4817,15 +4949,15 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4834,7 +4966,7 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F122">
         <v>7</v>
@@ -4849,21 +4981,21 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123">
-        <v>7000</v>
+        <v>710</v>
       </c>
       <c r="E123" t="s">
         <v>30</v>
@@ -4881,15 +5013,15 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C124">
         <v>300</v>
@@ -4913,15 +5045,15 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -4930,7 +5062,7 @@
         <v>3.34</v>
       </c>
       <c r="E125" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F125">
         <v>3</v>
@@ -4945,167 +5077,295 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>7.0</v>
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>36</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
-      </c>
-      <c r="F126" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-29832.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-23.0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2.0</v>
+        <v>77</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+      <c r="G126">
+        <v>-29832</v>
+      </c>
+      <c r="H126">
+        <v>-23</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
-      </c>
-      <c r="C127" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D127">
         <v>3.4</v>
       </c>
       <c r="E127" t="s">
         <v>30</v>
       </c>
-      <c r="F127" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-324.4</v>
-      </c>
-      <c r="H127" t="n">
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>-324.39999999999998</v>
+      </c>
+      <c r="H127">
         <v>23.69</v>
       </c>
-      <c r="I127" t="n">
-        <v>2.0</v>
+      <c r="I127">
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>156</v>
-      </c>
-      <c r="C128" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>23.0</v>
+        <v>128</v>
+      </c>
+      <c r="C128">
+        <v>45</v>
+      </c>
+      <c r="D128">
+        <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>78</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G128" t="n">
+        <v>77</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
         <v>-23.5</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>232.23</v>
       </c>
-      <c r="I128" t="n">
-        <v>1.0</v>
+      <c r="I128">
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
-      </c>
-      <c r="C129" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.0</v>
+        <v>130</v>
+      </c>
+      <c r="C129">
+        <v>45</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
       </c>
       <c r="E129" t="s">
         <v>30</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>-400</v>
+      </c>
+      <c r="H129">
+        <v>809.1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130">
+        <v>23</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>80</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>200.62</v>
+      </c>
+      <c r="H130">
+        <v>100.59</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+      <c r="D131">
+        <v>23</v>
+      </c>
+      <c r="E131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>-123</v>
+      </c>
+      <c r="H131">
+        <v>222</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132">
+        <v>30</v>
+      </c>
+      <c r="D132">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>3087.43</v>
+      </c>
+      <c r="H132">
+        <v>-880.90200000000004</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" t="s">
+        <v>201</v>
+      </c>
+      <c r="C133" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3321.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2334.02</v>
+      </c>
+      <c r="I133" t="n">
         <v>1.0</v>
       </c>
-      <c r="G129" t="n">
-        <v>-400.0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>809.1</v>
-      </c>
-      <c r="I129" t="n">
+      <c r="J133" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>77</v>
+      </c>
+      <c r="F134" t="n">
         <v>1.0</v>
       </c>
-      <c r="J129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>158</v>
-      </c>
-      <c r="B130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C130" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E130" t="s">
-        <v>82</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>200.62</v>
-      </c>
-      <c r="H130" t="n">
-        <v>100.59</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J130" t="s">
-        <v>162</v>
+      <c r="G134" t="n">
+        <v>-110.12</v>
+      </c>
+      <c r="H134" t="n">
+        <v>333.42</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5116,6 +5376,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001DAFAB72B11A8841BB4C9719408B0024" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1e33d7e037175ffe44e86b38844c8de0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47562841-78c1-4b44-a16c-8a242845c2e3" xmlns:ns4="5efee8aa-3388-4072-ad52-ddb68a0c1c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02d5c5f1f966805c25b1387ee6e04d1" ns3:_="" ns4:_="">
     <xsd:import namespace="47562841-78c1-4b44-a16c-8a242845c2e3"/>
@@ -5344,7 +5610,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5353,13 +5619,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BF098F-A7EB-4925-BB55-245E4CAE68F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="47562841-78c1-4b44-a16c-8a242845c2e3"/>
+    <ds:schemaRef ds:uri="5efee8aa-3388-4072-ad52-ddb68a0c1c80"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C6BD292-3975-4671-ABC5-887978E1C114}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5378,27 +5655,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4292BCCE-7308-4F70-A272-6B4ADAEE3B4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BF098F-A7EB-4925-BB55-245E4CAE68F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="47562841-78c1-4b44-a16c-8a242845c2e3"/>
-    <ds:schemaRef ds:uri="5efee8aa-3388-4072-ad52-ddb68a0c1c80"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/out/artifacts/Tarea1POO_jar/Excel/baseDatosSismos.xlsx
+++ b/out/artifacts/Tarea1POO_jar/Excel/baseDatosSismos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="208">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -627,25 +627,28 @@
     <t>2 km sur de la Basilica</t>
   </si>
   <si>
-    <t>10/12/2020</t>
-  </si>
-  <si>
-    <t>09:12:22</t>
-  </si>
-  <si>
-    <t>Casona de Santa Rosa</t>
-  </si>
-  <si>
-    <t>Cartago Centro</t>
+    <t>Ceneguita</t>
   </si>
   <si>
     <t>09/10/2021</t>
   </si>
   <si>
-    <t>08:50:30</t>
-  </si>
-  <si>
-    <t>Terramall</t>
+    <t>21:29:00</t>
+  </si>
+  <si>
+    <t>Marcial Fallas</t>
+  </si>
+  <si>
+    <t>21:42:00</t>
+  </si>
+  <si>
+    <t>Maxi Pali</t>
+  </si>
+  <si>
+    <t>Lomas de Ayarco</t>
+  </si>
+  <si>
+    <t>El CAR de la liga</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J136" sqref="J136"/>
@@ -1241,8 +1244,8 @@
       <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3">
-        <v>6</v>
+      <c r="F6" s="3" t="n">
+        <v>4.0</v>
       </c>
       <c r="G6" s="16">
         <v>9.4558999999999997</v>
@@ -1254,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5288,8 +5291,8 @@
       <c r="E132" t="s">
         <v>29</v>
       </c>
-      <c r="F132">
-        <v>1</v>
+      <c r="F132" t="n">
+        <v>7.0</v>
       </c>
       <c r="G132">
         <v>3087.43</v>
@@ -5301,33 +5304,33 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C133" t="n">
-        <v>254.0</v>
+        <v>100.0</v>
       </c>
       <c r="D133" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="F133" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G133" t="n">
-        <v>-3321.0</v>
+        <v>100.0</v>
       </c>
       <c r="H133" t="n">
-        <v>2334.02</v>
+        <v>-500.4</v>
       </c>
       <c r="I133" t="n">
         <v>1.0</v>
@@ -5338,16 +5341,16 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" t="s">
         <v>204</v>
       </c>
-      <c r="B134" t="s">
-        <v>205</v>
-      </c>
       <c r="C134" t="n">
-        <v>66.0</v>
+        <v>100.0</v>
       </c>
       <c r="D134" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="E134" t="s">
         <v>77</v>
@@ -5356,15 +5359,47 @@
         <v>1.0</v>
       </c>
       <c r="G134" t="n">
-        <v>-110.12</v>
+        <v>100.4</v>
       </c>
       <c r="H134" t="n">
-        <v>333.42</v>
+        <v>-903.5</v>
       </c>
       <c r="I134" t="n">
         <v>1.0</v>
       </c>
       <c r="J134" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E135" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-312.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-4444.0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J135" t="s">
         <v>206</v>
       </c>
     </row>
